--- a/tools/Spreadsheet/Weapon.xlsx
+++ b/tools/Spreadsheet/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76459B6C-E755-4311-A491-57BB9C9E57F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F478B5-92AD-4FE4-B744-B12EA5227008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="CraftingMaterials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
   <si>
     <t>Primary</t>
   </si>
@@ -482,6 +482,60 @@
   </si>
   <si>
     <t>Silver_Battleaxe</t>
+  </si>
+  <si>
+    <t>Perk</t>
+  </si>
+  <si>
+    <t>Craftsmanship</t>
+  </si>
+  <si>
+    <t>Daedric Smithing</t>
+  </si>
+  <si>
+    <t>Draconic Blacksmithing</t>
+  </si>
+  <si>
+    <t>Dwarven Smithing</t>
+  </si>
+  <si>
+    <t>Ebony Smithing</t>
+  </si>
+  <si>
+    <t>Elven Smithing</t>
+  </si>
+  <si>
+    <t>Glass Smithing</t>
+  </si>
+  <si>
+    <t>Golden Smithing</t>
+  </si>
+  <si>
+    <t>Madness Smithing</t>
+  </si>
+  <si>
+    <t>Orcish Smithing</t>
+  </si>
+  <si>
+    <t>Stalhrim Smithing</t>
+  </si>
+  <si>
+    <t>Advanced Blacksmithing</t>
+  </si>
+  <si>
+    <t>Arcane Craftsmanship</t>
+  </si>
+  <si>
+    <t>Amber Smithing</t>
+  </si>
+  <si>
+    <t>Dark Smithing</t>
+  </si>
+  <si>
+    <t>Divine</t>
+  </si>
+  <si>
+    <t>Skyforge Smithing</t>
   </si>
 </sst>
 </file>
@@ -833,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,9 +899,10 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -857,8 +912,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -868,40 +926,55 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -911,8 +984,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -925,8 +1001,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -939,8 +1018,11 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -950,8 +1032,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -961,8 +1046,11 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -972,8 +1060,11 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -983,16 +1074,22 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1002,32 +1099,44 @@
       <c r="C15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1037,8 +1146,11 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1048,8 +1160,11 @@
       <c r="C20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1059,16 +1174,22 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1078,8 +1199,11 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1089,8 +1213,11 @@
       <c r="C24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1103,8 +1230,11 @@
       <c r="D25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1114,16 +1244,22 @@
       <c r="C26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1136,35 +1272,44 @@
       <c r="D28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="D30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1174,13 +1319,19 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB5A2C-AECE-4EC9-93ED-576D4200C6F9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1503,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,383 +1666,470 @@
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
       <c r="B30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
       <c r="B31" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>126</v>
       </c>
       <c r="B36" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>88</v>
       </c>
       <c r="B40" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>137</v>
       </c>
       <c r="B53" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
       <c r="B57" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
       <c r="B59" t="s">
         <v>140</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Spreadsheet/Weapon.xlsx
+++ b/tools/Spreadsheet/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F478B5-92AD-4FE4-B744-B12EA5227008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F08408A-501C-470A-AE74-DA589364C8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="CraftingMaterials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="171">
   <si>
     <t>Primary</t>
   </si>
@@ -536,6 +536,21 @@
   </si>
   <si>
     <t>Skyforge Smithing</t>
+  </si>
+  <si>
+    <t>Silver_Greatsword</t>
+  </si>
+  <si>
+    <t>Steel_Greatsword</t>
+  </si>
+  <si>
+    <t>Glass_Bow</t>
+  </si>
+  <si>
+    <t>Steel_Mace</t>
+  </si>
+  <si>
+    <t>Steel_Warhammer</t>
   </si>
 </sst>
 </file>
@@ -889,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -1656,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,11 +1764,23 @@
       <c r="A9" t="s">
         <v>67</v>
       </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1764,6 +1791,12 @@
       <c r="A12" t="s">
         <v>69</v>
       </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1807,6 +1840,12 @@
       <c r="A17" t="s">
         <v>73</v>
       </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1844,6 +1883,12 @@
       <c r="A22" t="s">
         <v>76</v>
       </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1881,6 +1926,12 @@
       <c r="A27" t="s">
         <v>93</v>
       </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1935,6 +1986,12 @@
       <c r="A33" t="s">
         <v>124</v>
       </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2031,6 +2088,12 @@
       <c r="A45" t="s">
         <v>83</v>
       </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2065,6 +2128,12 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">

--- a/tools/Spreadsheet/Weapon.xlsx
+++ b/tools/Spreadsheet/Weapon.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F08408A-501C-470A-AE74-DA589364C8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A90AD8-C663-4BA4-B1E6-B0BC2756FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="CraftingMaterials" sheetId="1" r:id="rId1"/>
-    <sheet name="CraftingQuantities" sheetId="2" r:id="rId2"/>
-    <sheet name="Artifacts" sheetId="3" r:id="rId3"/>
+    <sheet name="Weapons" sheetId="1" r:id="rId1"/>
+    <sheet name="Stats" sheetId="4" r:id="rId2"/>
+    <sheet name="CraftingQuantities" sheetId="2" r:id="rId3"/>
+    <sheet name="Artifacts" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="178">
   <si>
     <t>Primary</t>
   </si>
@@ -551,6 +552,27 @@
   </si>
   <si>
     <t>Steel_Warhammer</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>BoundMystic</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>Stagger</t>
   </si>
 </sst>
 </file>
@@ -586,8 +608,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,450 +925,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>-2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F17" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B20">
+        <v>-2</v>
+      </c>
+      <c r="C20">
+        <v>-2</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F25" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F27" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G27" t="s">
         <v>34</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F30" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G30" t="s">
         <v>21</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H30" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
         <v>24</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
         <v>23</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35">
+        <v>-6</v>
+      </c>
+      <c r="C35">
+        <v>-7</v>
+      </c>
+      <c r="D35">
+        <v>0.25</v>
+      </c>
+      <c r="E35" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H35" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1356,6 +1658,458 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7180504A-6B28-41F6-B85F-D857A0714427}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1.3</v>
+      </c>
+      <c r="F2">
+        <v>0.7</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2.5</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>1.3</v>
+      </c>
+      <c r="F3">
+        <v>0.7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.9</v>
+      </c>
+      <c r="G7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.9</v>
+      </c>
+      <c r="G8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>1.05</v>
+      </c>
+      <c r="F11">
+        <v>0.9</v>
+      </c>
+      <c r="G11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>65</v>
+      </c>
+      <c r="E14">
+        <v>0.95</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+      <c r="G14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>0.75</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>0.75</v>
+      </c>
+      <c r="F17">
+        <v>1.3</v>
+      </c>
+      <c r="G17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>0.75</v>
+      </c>
+      <c r="F18">
+        <v>1.3</v>
+      </c>
+      <c r="G18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>0.7</v>
+      </c>
+      <c r="F20">
+        <v>1.3</v>
+      </c>
+      <c r="G20">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>110</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <v>1.3</v>
+      </c>
+      <c r="G22">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>110</v>
+      </c>
+      <c r="E23">
+        <v>0.7</v>
+      </c>
+      <c r="F23">
+        <v>1.3</v>
+      </c>
+      <c r="G23">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>0.8</v>
+      </c>
+      <c r="F25">
+        <v>1.3</v>
+      </c>
+      <c r="G25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>0.9</v>
+      </c>
+      <c r="F26">
+        <v>1.5</v>
+      </c>
+      <c r="G26">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB5A2C-AECE-4EC9-93ED-576D4200C6F9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -1667,537 +2421,682 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>65</v>
       </c>
       <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>145</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>166</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>170</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>5000</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>50000</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5000</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
       </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>-3</v>
+      </c>
+      <c r="E18">
+        <v>50000</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>100</v>
       </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>5000</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>168</v>
       </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>143</v>
       </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>5000</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
       <c r="B27" t="s">
         <v>169</v>
       </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>142</v>
       </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>5000</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>146</v>
       </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>2.5</v>
+      </c>
+      <c r="E29">
+        <v>50000</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
       <c r="B30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>50000</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
       <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>50000</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>124</v>
       </c>
       <c r="B33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>5000</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>-4</v>
+      </c>
+      <c r="E35">
+        <v>5000</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>126</v>
       </c>
       <c r="B36" t="s">
         <v>144</v>
       </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>5000</v>
+      </c>
+      <c r="F38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>103</v>
       </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>-3</v>
+      </c>
+      <c r="F39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>88</v>
       </c>
       <c r="B40" t="s">
         <v>147</v>
       </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>50000</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
       <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>167</v>
       </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>137</v>
       </c>
       <c r="B53" t="s">
         <v>106</v>
       </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>-9</v>
+      </c>
+      <c r="F53">
+        <v>0.2</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>141</v>
       </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>50000</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
       <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
       </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>50000</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
       <c r="B59" t="s">
         <v>140</v>
       </c>
-      <c r="C59" t="b">
+      <c r="I59" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tools/Spreadsheet/Weapon.xlsx
+++ b/tools/Spreadsheet/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A90AD8-C663-4BA4-B1E6-B0BC2756FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A3BE14-5C51-4404-8347-AEBA5FA1EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,6 +2519,15 @@
       <c r="B6" t="s">
         <v>92</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
@@ -2541,6 +2550,12 @@
       <c r="B8" t="s">
         <v>92</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -2715,6 +2730,15 @@
       <c r="B23" t="s">
         <v>143</v>
       </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
@@ -2731,8 +2755,20 @@
       <c r="B25" t="s">
         <v>101</v>
       </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>-8</v>
+      </c>
       <c r="E25">
         <v>5000</v>
+      </c>
+      <c r="F25">
+        <v>-0.125</v>
+      </c>
+      <c r="G25">
+        <v>0.05</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>

--- a/tools/Spreadsheet/Weapon.xlsx
+++ b/tools/Spreadsheet/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A3BE14-5C51-4404-8347-AEBA5FA1EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ABEEB4-7D56-4C26-A1A6-6974956BBC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -2682,7 +2682,7 @@
         <v>-3</v>
       </c>
       <c r="E18">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>91</v>
       </c>
       <c r="E31">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -2975,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>

--- a/tools/Spreadsheet/Weapon.xlsx
+++ b/tools/Spreadsheet/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ABEEB4-7D56-4C26-A1A6-6974956BBC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F084E-0566-4E62-80AE-F3F7AB95C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,7 +2818,7 @@
         <v>2.5</v>
       </c>
       <c r="E29">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
